--- a/TS-03-XLS-suavizado-exponencial.xlsx
+++ b/TS-03-XLS-suavizado-exponencial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="27780" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo1" sheetId="1" r:id="rId1"/>
@@ -424,6 +424,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -450,9 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,11 +735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1152936240"/>
-        <c:axId val="1152938288"/>
+        <c:axId val="964554544"/>
+        <c:axId val="964556592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1152936240"/>
+        <c:axId val="964554544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,12 +795,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1152938288"/>
+        <c:crossAx val="964556592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1152938288"/>
+        <c:axId val="964556592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,6 +820,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -856,7 +857,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1152936240"/>
+        <c:crossAx val="964554544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1172,11 +1173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1152978368"/>
-        <c:axId val="1152980848"/>
+        <c:axId val="1069246656"/>
+        <c:axId val="1069249136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1152978368"/>
+        <c:axId val="1069246656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,12 +1233,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1152980848"/>
+        <c:crossAx val="1069249136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1152980848"/>
+        <c:axId val="1069249136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1294,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1152978368"/>
+        <c:crossAx val="1069246656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2791,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,8 +2955,8 @@
         <v>34</v>
       </c>
       <c r="K5" s="6">
-        <f>+SUM(H3:H20)</f>
-        <v>333.13763277801439</v>
+        <f>+SUM(H3:H21)</f>
+        <v>334.32484727096551</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3004,7 +3005,7 @@
         <v>19.568646958571502</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f>+E6+alpha*gamma*G7</f>
         <v>0.8018456463995346</v>
       </c>
       <c r="F7" s="6">
@@ -3579,30 +3580,30 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3620,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3699,7 +3700,7 @@
         <v>16.862362919428985</v>
       </c>
       <c r="E3" s="6">
-        <f>+E2+alpha*beta*G3</f>
+        <f t="shared" ref="E3:E25" si="1">+E2+alpha*beta*G3</f>
         <v>0.3646681825272971</v>
       </c>
       <c r="F3" s="6">
@@ -3736,19 +3737,19 @@
         <v>16.851376768774273</v>
       </c>
       <c r="E4" s="6">
-        <f>+E3+alpha*beta*G4</f>
+        <f t="shared" si="1"/>
         <v>0.22793000524904636</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F25" si="1">+D3+E3</f>
+        <f t="shared" ref="F4:F25" si="2">+D3+E3</f>
         <v>17.227031101956282</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G25" si="2">+C4-F4</f>
+        <f t="shared" ref="G4:G25" si="3">+C4-F4</f>
         <v>-0.62703110195628042</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H25" si="3">+G4^2</f>
+        <f t="shared" ref="H4:H25" si="4">+G4^2</f>
         <v>0.39316800282050735</v>
       </c>
       <c r="K4" s="6"/>
@@ -3768,27 +3769,27 @@
         <v>17.547020085705949</v>
       </c>
       <c r="E5" s="6">
-        <f>+E4+alpha*beta*G5</f>
+        <f t="shared" si="1"/>
         <v>0.39817765070152333</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.079306774023319</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78069322597668034</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.60948191308587607</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="6">
-        <f>+SUM(H3:H20)</f>
-        <v>50.125486470402819</v>
+        <f>+SUM(H3:H21)</f>
+        <v>51.54286403125051</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3806,19 +3807,19 @@
         <v>17.438839772525757</v>
       </c>
       <c r="E6" s="6">
-        <f>+E5+alpha*beta*G6</f>
+        <f t="shared" si="1"/>
         <v>0.21386335184857883</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.945197736407472</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.84519773640747076</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71435921362831245</v>
       </c>
     </row>
@@ -3837,19 +3838,19 @@
         <v>18.939148682561672</v>
       </c>
       <c r="E7" s="6">
-        <f>+E6+alpha*beta*G7</f>
+        <f t="shared" si="1"/>
         <v>0.68212953502876872</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.652703124374337</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1472968756256634</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.610883872071736</v>
       </c>
     </row>
@@ -3868,19 +3869,19 @@
         <v>19.722359437432008</v>
       </c>
       <c r="E8" s="6">
-        <f>+E7+alpha*beta*G8</f>
+        <f t="shared" si="1"/>
         <v>0.71892309905109908</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.62127821759044</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16872178240955904</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8467039859458587E-2</v>
       </c>
     </row>
@@ -3899,19 +3900,19 @@
         <v>21.938264168876078</v>
       </c>
       <c r="E9" s="6">
-        <f>+E8+alpha*beta*G9</f>
+        <f t="shared" si="1"/>
         <v>1.2638244132421403</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.441282536483108</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4987174635168934</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2435889624842975</v>
       </c>
     </row>
@@ -3930,19 +3931,19 @@
         <v>21.715069312571192</v>
       </c>
       <c r="E10" s="6">
-        <f>+E9+alpha*beta*G10</f>
+        <f t="shared" si="1"/>
         <v>0.72254939912702321</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.202088582118218</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.4820885821182195</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1607637294816335</v>
       </c>
     </row>
@@ -3961,19 +3962,19 @@
         <v>23.385623341519814</v>
       </c>
       <c r="E11" s="6">
-        <f>+E10+alpha*beta*G11</f>
+        <f t="shared" si="1"/>
         <v>1.0676230843820855</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.437618711698214</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5823812883017858</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5039305415676192</v>
       </c>
     </row>
@@ -3992,19 +3993,19 @@
         <v>23.918102492144069</v>
       </c>
       <c r="E12" s="6">
-        <f>+E11+alpha*beta*G12</f>
+        <f t="shared" si="1"/>
         <v>0.87283069249423606</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.453246425901899</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.89324642590189995</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79788917738651843</v>
       </c>
     </row>
@@ -4023,19 +4024,19 @@
         <v>25.173798113721496</v>
       </c>
       <c r="E13" s="6">
-        <f>+E12+alpha*beta*G13</f>
+        <f t="shared" si="1"/>
         <v>1.0121935266805175</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.790933184638305</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6390668153616943</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40840639449653787</v>
       </c>
     </row>
@@ -4054,19 +4055,19 @@
         <v>24.534877048637167</v>
       </c>
       <c r="E14" s="6">
-        <f>+E13+alpha*beta*G14</f>
+        <f t="shared" si="1"/>
         <v>0.41118781527811388</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.185991640402012</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7559916404020122</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5954899219657737</v>
       </c>
     </row>
@@ -4085,19 +4086,19 @@
         <v>24.798647403943637</v>
       </c>
       <c r="E15" s="6">
-        <f>+E14+alpha*beta*G15</f>
+        <f t="shared" si="1"/>
         <v>0.35752785984843471</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.946064863915282</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.24606486391528293</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0547917253646708E-2</v>
       </c>
     </row>
@@ -4116,19 +4117,19 @@
         <v>26.596306663254239</v>
       </c>
       <c r="E16" s="6">
-        <f>+E15+alpha*beta*G16</f>
+        <f t="shared" si="1"/>
         <v>0.8817356892526641</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.156175263792072</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4038247362079268</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7783733624051088</v>
       </c>
     </row>
@@ -4147,19 +4148,19 @@
         <v>28.168180179120018</v>
       </c>
       <c r="E17" s="6">
-        <f>+E16+alpha*beta*G17</f>
+        <f t="shared" si="1"/>
         <v>1.1329458581398373</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.478042352506904</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.151957647493095</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3270064216178259</v>
       </c>
     </row>
@@ -4178,19 +4179,19 @@
         <v>29.635947428337477</v>
       </c>
       <c r="E18" s="6">
-        <f>+E17+alpha*beta*G18</f>
+        <f t="shared" si="1"/>
         <v>1.254820844492091</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.301126037259856</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55887396274014378</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31234010622887159</v>
       </c>
     </row>
@@ -4209,19 +4210,19 @@
         <v>28.811431000577375</v>
       </c>
       <c r="E19" s="6">
-        <f>+E18+alpha*beta*G19</f>
+        <f t="shared" si="1"/>
         <v>0.49794207739229268</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.890768272829568</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.4707682728295666</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.046232403680333</v>
       </c>
     </row>
@@ -4240,19 +4241,19 @@
         <v>28.878396666958039</v>
       </c>
       <c r="E20" s="6">
-        <f>+E19+alpha*beta*G20</f>
+        <f t="shared" si="1"/>
         <v>0.34106666378406025</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.309373077969667</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.71937307796966721</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.51749762530755294</v>
       </c>
     </row>
@@ -4271,19 +4272,19 @@
         <v>29.932713849294508</v>
       </c>
       <c r="E21" s="6">
-        <f>+E20+alpha*beta*G21</f>
+        <f t="shared" si="1"/>
         <v>0.60068985253713647</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.219463330742101</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1905366692578987</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4173775608476913</v>
       </c>
     </row>
@@ -4302,19 +4303,19 @@
         <v>32.256772544064304</v>
       </c>
       <c r="E22" s="6">
-        <f>+E21+alpha*beta*G22</f>
+        <f t="shared" si="1"/>
         <v>1.2279961111098245</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.533403701831645</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8765962981683515</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2748062626358632</v>
       </c>
     </row>
@@ -4333,19 +4334,19 @@
         <v>30.67812375385931</v>
       </c>
       <c r="E23" s="6">
-        <f>+E22+alpha*beta*G23</f>
+        <f t="shared" si="1"/>
         <v>0.20637736703123011</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.484768655174129</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.6847686551741283</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.947057352502011</v>
       </c>
     </row>
@@ -4364,19 +4365,19 @@
         <v>33.326132499365016</v>
       </c>
       <c r="E24" s="6">
-        <f>+E23+alpha*beta*G24</f>
+        <f t="shared" si="1"/>
         <v>1.0951311887959398</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.88450112089054</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0754988791094604</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.609691113622468</v>
       </c>
     </row>
@@ -4395,44 +4396,44 @@
         <v>34.582263612583723</v>
       </c>
       <c r="E25" s="6">
-        <f>+E24+alpha*beta*G25</f>
+        <f t="shared" si="1"/>
         <v>1.1537351612858282</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.421263688160955</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26873631183904223</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.221920530085095E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
